--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H2">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I2">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J2">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.266045794752</v>
+        <v>1.395399227966222</v>
       </c>
       <c r="R2">
-        <v>2.394412152768</v>
+        <v>12.558593051696</v>
       </c>
       <c r="S2">
-        <v>0.001467025703214395</v>
+        <v>0.004013397017159161</v>
       </c>
       <c r="T2">
-        <v>0.001467025703214395</v>
+        <v>0.004013397017159161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H3">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I3">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J3">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>6.755772861588</v>
+        <v>48.92520038387789</v>
       </c>
       <c r="R3">
-        <v>60.801955754292</v>
+        <v>440.326803454901</v>
       </c>
       <c r="S3">
-        <v>0.0372525806779487</v>
+        <v>0.140716899758327</v>
       </c>
       <c r="T3">
-        <v>0.0372525806779487</v>
+        <v>0.140716899758327</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>227.042794</v>
       </c>
       <c r="I4">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J4">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
         <v>3.930968481361778</v>
@@ -697,10 +697,10 @@
         <v>35.378716332256</v>
       </c>
       <c r="S4">
-        <v>0.02167608702877282</v>
+        <v>0.01130611000884539</v>
       </c>
       <c r="T4">
-        <v>0.02167608702877282</v>
+        <v>0.01130611000884539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>227.042794</v>
       </c>
       <c r="I5">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J5">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>99.82014641839044</v>
+        <v>137.8268074102651</v>
       </c>
       <c r="R5">
-        <v>898.381317765514</v>
+        <v>1240.441266692386</v>
       </c>
       <c r="S5">
-        <v>0.5504267437525519</v>
+        <v>0.3964125009235837</v>
       </c>
       <c r="T5">
-        <v>0.550426743752552</v>
+        <v>0.3964125009235838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H6">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I6">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J6">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.5440136837439999</v>
+        <v>0.750759703038222</v>
       </c>
       <c r="R6">
-        <v>4.896123153695999</v>
+        <v>6.756837327343998</v>
       </c>
       <c r="S6">
-        <v>0.002999792038422345</v>
+        <v>0.002159308026254572</v>
       </c>
       <c r="T6">
-        <v>0.002999792038422345</v>
+        <v>0.002159308026254572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H7">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I7">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J7">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>13.814286688486</v>
+        <v>26.32298210800989</v>
       </c>
       <c r="R7">
-        <v>124.328580196374</v>
+        <v>236.906838972089</v>
       </c>
       <c r="S7">
-        <v>0.07617453101437935</v>
+        <v>0.07570921336182515</v>
       </c>
       <c r="T7">
-        <v>0.07617453101437936</v>
+        <v>0.07570921336182516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H8">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I8">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J8">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>2.130059316520889</v>
+        <v>3.564248713123555</v>
       </c>
       <c r="R8">
-        <v>19.170533848688</v>
+        <v>32.078238418112</v>
       </c>
       <c r="S8">
-        <v>0.01174554091193332</v>
+        <v>0.01025136381543829</v>
       </c>
       <c r="T8">
-        <v>0.01174554091193332</v>
+        <v>0.01025136381543829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H9">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I9">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J9">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>54.08917264615523</v>
+        <v>124.9689544129302</v>
       </c>
       <c r="R9">
-        <v>486.802553815397</v>
+        <v>1124.720589716372</v>
       </c>
       <c r="S9">
-        <v>0.2982576988727771</v>
+        <v>0.3594312070885667</v>
       </c>
       <c r="T9">
-        <v>0.2982576988727771</v>
+        <v>0.3594312070885667</v>
       </c>
     </row>
   </sheetData>
